--- a/Data/aearep-348/candidatepackages.xlsx
+++ b/Data/aearep-348/candidatepackages.xlsx
@@ -14,26 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="94">
   <si>
     <t>(Potential) missing package found</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>table1</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>white</t>
   </si>
   <si>
@@ -43,15 +31,6 @@
     <t>pre</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -64,19 +43,10 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-348</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-348/2018_0664_do_files</t>
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
   </si>
   <si>
     <t>2018_0664_figure1a.do</t>
@@ -369,7 +339,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -377,13 +347,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -391,7 +361,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -403,10 +373,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>712</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D3"/>
     </row>
@@ -415,10 +385,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>1125</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D4"/>
     </row>
@@ -427,96 +397,12 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>267</v>
+        <v>1428</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>279</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>745</v>
-      </c>
-      <c r="C7">
-        <v>0.24701590836048126</v>
-      </c>
-      <c r="D7"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1194</v>
-      </c>
-      <c r="C8">
-        <v>0.39588859677314758</v>
-      </c>
-      <c r="D8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1553</v>
-      </c>
-      <c r="C9">
-        <v>0.51492041349411011</v>
-      </c>
-      <c r="D9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1798</v>
-      </c>
-      <c r="C10">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1817</v>
-      </c>
-      <c r="C11">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1859</v>
-      </c>
-      <c r="C12">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D12"/>
     </row>
   </sheetData>
 </worksheet>
@@ -524,695 +410,679 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B84"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>17</v>
-      </c>
-      <c r="B85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>17</v>
-      </c>
-      <c r="B86" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Data/aearep-348/candidatepackages.xlsx
+++ b/Data/aearep-348/candidatepackages.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rschfs1x\userRS\K-Q\lr397_RS\Documents\AEA_workspace\FunPackageSearch\Statapackagesearch\Data\aearep-348\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C99737-B410-4128-BB89-D677E95FF35A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Missing packages" sheetId="1" r:id="rId2"/>
-    <sheet name="Programs parsed" sheetId="2" r:id="rId4"/>
+    <sheet name="Missing packages" sheetId="1" r:id="rId1"/>
+    <sheet name="Programs parsed" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -301,7 +308,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -334,15 +341,325 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -356,7 +673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -366,9 +683,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2"/>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -378,9 +697,11 @@
       <c r="C3">
         <v>0.2353719025850296</v>
       </c>
-      <c r="D3"/>
-    </row>
-    <row r="4">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -390,9 +711,11 @@
       <c r="C4">
         <v>0.37190082669258118</v>
       </c>
-      <c r="D4"/>
-    </row>
-    <row r="5">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -402,18 +725,24 @@
       <c r="C5">
         <v>0.47206610441207886</v>
       </c>
-      <c r="D5"/>
+      <c r="D5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -421,7 +750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -429,7 +758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -437,7 +766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -445,7 +774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -453,7 +782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -461,7 +790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -469,7 +798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -477,7 +806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -485,7 +814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -493,7 +822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -501,7 +830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -509,7 +838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -517,7 +846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -525,7 +854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -533,7 +862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -541,7 +870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -549,7 +878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -557,7 +886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -565,7 +894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -573,7 +902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -581,7 +910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -589,7 +918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -597,7 +926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -605,7 +934,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -613,7 +942,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -621,7 +950,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -629,7 +958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -637,7 +966,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -645,7 +974,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -653,7 +982,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -661,7 +990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -669,7 +998,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -677,7 +1006,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -685,7 +1014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -693,7 +1022,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -701,7 +1030,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -709,7 +1038,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -717,7 +1046,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -725,7 +1054,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -733,7 +1062,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -741,7 +1070,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -749,7 +1078,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -757,7 +1086,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -765,7 +1094,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -773,7 +1102,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -781,7 +1110,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -789,7 +1118,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -797,7 +1126,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -805,7 +1134,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -813,7 +1142,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -821,7 +1150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -829,7 +1158,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -837,7 +1166,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -845,7 +1174,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -853,7 +1182,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -861,7 +1190,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -869,7 +1198,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -877,7 +1206,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -885,7 +1214,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -893,7 +1222,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -901,7 +1230,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -909,7 +1238,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -917,7 +1246,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -925,7 +1254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -933,7 +1262,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -941,7 +1270,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -949,7 +1278,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -957,7 +1286,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -965,7 +1294,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -973,7 +1302,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -981,7 +1310,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -989,7 +1318,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -997,7 +1326,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -1005,7 +1334,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -1013,7 +1342,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -1021,7 +1350,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -1029,7 +1358,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -1037,7 +1366,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -1045,7 +1374,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -1053,7 +1382,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -1061,7 +1390,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -1069,7 +1398,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -1077,7 +1406,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -1086,5 +1415,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>